--- a/Phase02/Dimensions/dimensions_description_tables.xlsx
+++ b/Phase02/Dimensions/dimensions_description_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc59451_alunos_fc_ul_pt/Documents/MCD/2º Semestre/I.P.A.I/IPAI_project/Phase02/Dimensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="8_{4639E6E7-2B27-4EA7-B20F-7A18153BC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C671FDB6-E843-4A65-87D9-6ABFC0BD23A2}"/>
+  <xr:revisionPtr revIDLastSave="842" documentId="8_{4639E6E7-2B27-4EA7-B20F-7A18153BC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA0A956-B839-4695-8CAB-4F86ECCC757E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6735" windowWidth="16440" windowHeight="28320" xr2:uid="{D8C88B91-35F5-4659-BD7F-D135DF14A8D1}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
+  <si>
+    <t xml:space="preserve">Product Dimension </t>
+  </si>
   <si>
     <t>Field</t>
   </si>
@@ -50,7 +53,7 @@
     <t>Example</t>
   </si>
   <si>
-    <t>ProductKey (PK)</t>
+    <t>Product Key (PK)</t>
   </si>
   <si>
     <t>Primary Key</t>
@@ -59,7 +62,7 @@
     <t>NUMERIC</t>
   </si>
   <si>
-    <t>ProductID</t>
+    <t>Product ID</t>
   </si>
   <si>
     <t>Unique ID of the Product</t>
@@ -77,7 +80,7 @@
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>Staples</t>
+    <t>Fellowes File Cart, Industrial</t>
   </si>
   <si>
     <t>Category</t>
@@ -89,40 +92,40 @@
     <t>Office Supplies</t>
   </si>
   <si>
-    <t>SubCategory</t>
+    <t>Sub Category</t>
   </si>
   <si>
     <t>Sub-Category of a given purchased product</t>
   </si>
   <si>
-    <t>Binders</t>
-  </si>
-  <si>
-    <t>Desciption</t>
-  </si>
-  <si>
-    <t>CustomerKey (PK)</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Dimension </t>
+  </si>
+  <si>
+    <t>Customer Key (PK)</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
   </si>
   <si>
     <t>Unique ID to identify each customer.</t>
   </si>
   <si>
-    <t>SV-203651406</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
+    <t>AA-10315</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
   </si>
   <si>
     <t>Name of the customer</t>
   </si>
   <si>
-    <t>Muhammed Yedwab</t>
-  </si>
-  <si>
-    <t>Segment</t>
+    <t>Alex Avila</t>
+  </si>
+  <si>
+    <t>Customer Segment</t>
   </si>
   <si>
     <t>Segment where the customer belongs</t>
@@ -131,103 +134,163 @@
     <t>Consumer</t>
   </si>
   <si>
-    <t>State</t>
+    <t>Customer State</t>
   </si>
   <si>
     <t>State of residence of the customer</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>StateKey (PK)</t>
-  </si>
-  <si>
-    <t>Region</t>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>State Key (FK)</t>
+  </si>
+  <si>
+    <t>Customer Region</t>
   </si>
   <si>
     <t>Region of residence of the customer</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>City</t>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Customer City</t>
   </si>
   <si>
     <t>City of residence of the customer</t>
   </si>
   <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Customer Postal Code</t>
   </si>
   <si>
     <t>Postal Code of the customer</t>
   </si>
   <si>
-    <t>StateKey (FK)</t>
+    <t>GDP Dimension  (Outrigger)</t>
   </si>
   <si>
     <t>Foreign Key</t>
   </si>
   <si>
-    <t>CustomerRegion</t>
-  </si>
-  <si>
-    <t>The region of reference for the GDP</t>
-  </si>
-  <si>
-    <t>AvgStateGDP</t>
-  </si>
-  <si>
-    <t>AVG GDP value in $ per State between xxxx and xxxx</t>
+    <t>The state of reference for the GDP</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Average State GDP</t>
+  </si>
+  <si>
+    <t>AVG GDP value in $ per State between 2012 and 2015</t>
+  </si>
+  <si>
+    <t>Date Dimension  (Role Play - Order &amp; Ship)</t>
   </si>
   <si>
     <t>DateKey (PK)</t>
   </si>
   <si>
+    <t>Full Date Description</t>
+  </si>
+  <si>
     <t>Full Date of a certain Order (year/month/day)</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>2012/10/02</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Year of a certain Order / Shippment</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Season of the Year of a certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
     <t>Semester</t>
   </si>
   <si>
-    <t>First</t>
+    <t>Semester of a certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Month Number Year</t>
+  </si>
+  <si>
+    <t>Number of Month of a certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Week Number Year</t>
+  </si>
+  <si>
+    <t>Number of Week in Year of o certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Day Number Month</t>
+  </si>
+  <si>
+    <t>Number of Day in Month of a certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Day Number Week</t>
+  </si>
+  <si>
+    <t>Number of Day in Week of a certain Order / shipment</t>
+  </si>
+  <si>
+    <t>Day Name Week</t>
+  </si>
+  <si>
+    <t>Name of Day of the Week of a certain Order / shipment</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>HolidayKey (FK)</t>
-  </si>
-  <si>
-    <t>HolidayIndicator</t>
+    <t>Holiday Key (FK)</t>
+  </si>
+  <si>
+    <t>Holiday Indicator</t>
   </si>
   <si>
     <t>Indication of if it was a Holiday or not</t>
   </si>
   <si>
-    <t>HolidayKey (PK)</t>
-  </si>
-  <si>
-    <t>FullHolidayDate</t>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Weekend Indicator</t>
+  </si>
+  <si>
+    <t>Indication of if it was a Weekend or not</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holiday Dimension  (Outrigger - Connected to Dimension Date)</t>
+  </si>
+  <si>
+    <t>Holiday Key (PK)</t>
+  </si>
+  <si>
+    <t>Full Holiday Date</t>
   </si>
   <si>
     <t>Full Date of the Holiday (year/month/day)</t>
   </si>
   <si>
-    <t>HolidayName</t>
+    <t>Holiday Name</t>
   </si>
   <si>
     <t>Name of Holiday</t>
@@ -236,43 +299,49 @@
     <t>4th of July</t>
   </si>
   <si>
-    <t>YearHoliday</t>
+    <t>Year Holiday</t>
   </si>
   <si>
     <t>Year of Holdiday</t>
   </si>
   <si>
-    <t>MonthHoliday</t>
+    <t>Month Holiday</t>
   </si>
   <si>
     <t>Month of Holdiday</t>
   </si>
   <si>
-    <t>DayMonthHoliday</t>
+    <t>Day Month Holiday</t>
   </si>
   <si>
     <t>Day of th Month of Holdiday</t>
   </si>
   <si>
-    <t>DayWeekHoliday</t>
+    <t>Day Week Holiday</t>
   </si>
   <si>
     <t>Day of the Week of Holdiday</t>
   </si>
   <si>
-    <t>SellerKey (PK)</t>
-  </si>
-  <si>
-    <t>SellerName</t>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller Dimension  </t>
+  </si>
+  <si>
+    <t>Seller Key (PK)</t>
+  </si>
+  <si>
+    <t>Seller Name</t>
   </si>
   <si>
     <t>Name of the Seller</t>
   </si>
   <si>
-    <t>Marilène Rousseau</t>
-  </si>
-  <si>
-    <t>SellerMarket</t>
+    <t>Kaoru Xun</t>
+  </si>
+  <si>
+    <t>Seller Market</t>
   </si>
   <si>
     <t>Market of the Seller</t>
@@ -281,61 +350,67 @@
     <t>Asia Pacific</t>
   </si>
   <si>
-    <t>SellerRegion</t>
+    <t>Seller Region</t>
   </si>
   <si>
     <t>Region of the Seller</t>
   </si>
   <si>
-    <t>Caribbean</t>
-  </si>
-  <si>
-    <t>SellerCountry</t>
+    <t>Western Asia</t>
+  </si>
+  <si>
+    <t>Seller Country</t>
   </si>
   <si>
     <t>Country of the Seller</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>SellerState</t>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Seller State</t>
   </si>
   <si>
     <t>State of the Seller</t>
   </si>
   <si>
-    <t>SellerCity</t>
+    <t xml:space="preserve"> Ajman</t>
+  </si>
+  <si>
+    <t>Seller City</t>
   </si>
   <si>
     <t>City of the Seller</t>
   </si>
   <si>
+    <t>Ajman</t>
+  </si>
+  <si>
     <t>Facts Table</t>
   </si>
   <si>
-    <t>Purchasekey</t>
+    <t>Transaction Key (DD)</t>
   </si>
   <si>
     <t>Unique Key - Degenerate Dimension</t>
   </si>
   <si>
-    <t>ProductKey (FK)</t>
-  </si>
-  <si>
-    <t>CustomerKey (FK)</t>
-  </si>
-  <si>
-    <t>OrderKey (FK)</t>
-  </si>
-  <si>
-    <t>OrderDateKey (FK)</t>
-  </si>
-  <si>
-    <t>ShipDateKey (FK)</t>
-  </si>
-  <si>
-    <t>SellerKey (FK)</t>
+    <t>Product Key (FK)</t>
+  </si>
+  <si>
+    <t>Customer Key (FK)</t>
+  </si>
+  <si>
+    <t>Order Key (FK)</t>
+  </si>
+  <si>
+    <t>Order Date Key (FK)</t>
+  </si>
+  <si>
+    <t>Ship Date Key (FK)</t>
+  </si>
+  <si>
+    <t>Seller Key (FK)</t>
   </si>
   <si>
     <t>Sales</t>
@@ -362,19 +437,19 @@
     <t>Profit obtain in $ from a certain purchase</t>
   </si>
   <si>
-    <t>ShippingCost</t>
+    <t>Shipping Cost</t>
   </si>
   <si>
     <t>Cost in $ of a certain shippement of certain order</t>
   </si>
   <si>
-    <t>Dimension Order Information</t>
-  </si>
-  <si>
-    <t>OrderKey (PK)</t>
-  </si>
-  <si>
-    <t>OrderID</t>
+    <t xml:space="preserve">Order Information Dimension </t>
+  </si>
+  <si>
+    <t>Order Key (PK)</t>
+  </si>
+  <si>
+    <t>Order ID</t>
   </si>
   <si>
     <t>Unique ID to identify each order.</t>
@@ -383,16 +458,16 @@
     <t>AE-2012-PO8865138-41184</t>
   </si>
   <si>
-    <t>ReturedIndicator</t>
+    <t>Returned Indicator</t>
   </si>
   <si>
     <t>Indication of if the Order was Returned or not</t>
   </si>
   <si>
-    <t>Was Returned</t>
-  </si>
-  <si>
-    <t>ShipMode</t>
+    <t>Not Returned</t>
+  </si>
+  <si>
+    <t>Ship Mode</t>
   </si>
   <si>
     <t>Shipmment Mode of the Order</t>
@@ -401,98 +476,23 @@
     <t>Standard Class</t>
   </si>
   <si>
-    <t>OrderPriority</t>
+    <t>Order Priority</t>
   </si>
   <si>
     <t>Level of Priority of the Order</t>
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>MonthNumberInYear</t>
-  </si>
-  <si>
-    <t>Year of a certain Order / Shippment</t>
-  </si>
-  <si>
-    <t>Number of Month of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t>Semester of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t>WeekNumberInYear</t>
-  </si>
-  <si>
-    <t>WeekendIndicator</t>
-  </si>
-  <si>
-    <t>Indication of if it was a Weekend or not</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Non-Weekend</t>
-  </si>
-  <si>
-    <t>FullDateDescription</t>
-  </si>
-  <si>
-    <t>DayNumberInMonth</t>
-  </si>
-  <si>
-    <t>Number of Week in Year of o certain Order / shipment</t>
-  </si>
-  <si>
-    <t>Number of Day in Month of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t>Name of Day of the Week of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Season of the Year of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>DayNumberInWeek</t>
-  </si>
-  <si>
-    <t>DayNameInWeek</t>
-  </si>
-  <si>
-    <t>Number of Day in Week of a certain Order / shipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Dimension </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Dimension </t>
-  </si>
-  <si>
-    <t>GDP Dimension  (Outrigger)</t>
-  </si>
-  <si>
-    <t>Date Dimension  (Role Play - Order &amp; Ship)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holiday Dimension  (Outrigger - Connected to Dimension Date)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seller Dimension  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,6 +884,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,21 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,10 +929,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,1088 +1230,1088 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C72221-92FE-436C-A718-11757630B4CF}">
   <dimension ref="C3:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6">
+      <c r="C3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="3:6">
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6">
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6">
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
       <c r="C13" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6">
       <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="12">
-        <v>42420</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+        <v>55407</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6">
+      <c r="C23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="12">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F27" s="41">
+        <v>2800665869.4029999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6">
+      <c r="C29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6">
       <c r="C32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="39">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F33" s="6">
         <v>2012</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6">
       <c r="C34" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F36" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="C38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F38" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F39" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6">
       <c r="C40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="38">
         <v>12</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="41" t="s">
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="E47" s="25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6">
       <c r="C48" s="27" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="29">
         <v>38172</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6">
       <c r="C49" s="30" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
       <c r="C50" s="27" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" s="32">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
       <c r="C51" s="30" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F51" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6">
       <c r="C52" s="27" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6">
       <c r="C53" s="33" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6">
+      <c r="C55" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="3:6">
       <c r="C56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
       <c r="C57" s="14" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6">
       <c r="C58" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
       <c r="C59" s="4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
       <c r="C60" s="7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
       <c r="C62" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
       <c r="C63" s="10" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6">
+      <c r="C65" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="3:6">
       <c r="C66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
       <c r="C67" s="14" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6">
       <c r="C68" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6">
       <c r="C69" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
       <c r="C70" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6">
       <c r="C71" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
       <c r="C72" s="7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6">
       <c r="C74" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F74" s="9">
         <v>82.674000000000007</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6">
       <c r="C75" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6">
       <c r="C76" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F76" s="9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6">
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77" s="6">
         <v>-157.08600000000001</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6">
       <c r="C78" s="20" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F78" s="22">
         <v>5.69</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6">
+      <c r="C80" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+    </row>
+    <row r="81" spans="3:6">
       <c r="C81" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
       <c r="C82" s="14" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6">
       <c r="C83" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
       <c r="C85" s="7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
       <c r="C86" s="10" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
